--- a/examples/lb.xlsx
+++ b/examples/lb.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jww/Developer/python/terraformer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04E86ECC-3332-8B4E-9F97-ED97495A8FCF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5ED3699-3983-134F-81D1-ACCB6D639BAF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39880" yWindow="-15100" windowWidth="25600" windowHeight="14680" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="loadbalancers" sheetId="50" r:id="rId1"/>
@@ -397,8 +397,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{2ECE5DB1-D260-6E49-B492-4FB9F047A792}" name="Table3" displayName="Table3" ref="A1:F2" totalsRowShown="0" headerRowDxfId="30">
-  <autoFilter ref="A1:F2" xr:uid="{BF7B2943-D8B2-F141-A648-1F77292E609F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{2ECE5DB1-D260-6E49-B492-4FB9F047A792}" name="Table3" displayName="Table3" ref="A1:F3" totalsRowShown="0" headerRowDxfId="30">
+  <autoFilter ref="A1:F3" xr:uid="{BF7B2943-D8B2-F141-A648-1F77292E609F}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{7E74D83A-54A4-D149-81D3-7E89BF180D8D}" name="*name" dataDxfId="29"/>
     <tableColumn id="2" xr3:uid="{C8993A1E-13ED-9646-B484-5C8D98EE5999}" name="*subnets" dataDxfId="28"/>
@@ -412,8 +412,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{94CB4938-803E-6A45-818C-239D4C2D3032}" name="Table14" displayName="Table14" ref="A1:J2" totalsRowShown="0" headerRowDxfId="27">
-  <autoFilter ref="A1:J2" xr:uid="{E37DA650-CD8A-9248-A324-C4E06B2EFAF3}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{94CB4938-803E-6A45-818C-239D4C2D3032}" name="Table14" displayName="Table14" ref="A1:J3" totalsRowShown="0" headerRowDxfId="27">
+  <autoFilter ref="A1:J3" xr:uid="{E37DA650-CD8A-9248-A324-C4E06B2EFAF3}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{E8A4E19C-7C80-BE4B-9D1A-EAF2138A1C8C}" name="*name"/>
     <tableColumn id="2" xr3:uid="{58502468-21D1-1040-A10E-00FB04A9B10A}" name="*lb" dataDxfId="26"/>
@@ -431,8 +431,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{85162D83-2223-2743-94A8-CBB5DCABF5E2}" name="Table5" displayName="Table5" ref="A1:N2" totalsRowShown="0" headerRowDxfId="22">
-  <autoFilter ref="A1:N2" xr:uid="{BABC147B-328A-9E42-A692-B07DDF9AA10A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{85162D83-2223-2743-94A8-CBB5DCABF5E2}" name="Table5" displayName="Table5" ref="A1:N3" totalsRowShown="0" headerRowDxfId="22">
+  <autoFilter ref="A1:N3" xr:uid="{BABC147B-328A-9E42-A692-B07DDF9AA10A}"/>
   <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{1A08DB6B-DC44-4B4A-ACBB-35F1471E6D94}" name="*name" dataDxfId="21"/>
     <tableColumn id="2" xr3:uid="{20D213A0-12B0-A448-93A2-6A4F802B619E}" name="*lb" dataDxfId="20"/>
@@ -734,9 +734,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3B909B7-5B7F-FE4A-8CD8-0D8F5B038E31}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -779,6 +779,11 @@
       <c r="F2" s="1" t="s">
         <v>4</v>
       </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="F3" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -790,7 +795,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{711B9366-0593-C248-9411-B78B3C2D6CE0}">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -857,6 +862,13 @@
         <v>4</v>
       </c>
     </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="J3" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -867,9 +879,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA16B708-803A-4C41-87F9-C6AEEBD9524B}">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -964,6 +976,22 @@
       <c r="N2" s="1" t="s">
         <v>4</v>
       </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/examples/lb.xlsx
+++ b/examples/lb.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10113"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jww/Developer/python/terraformer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5ED3699-3983-134F-81D1-ACCB6D639BAF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB99273F-E646-164E-82A7-637D3F38A3DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="460" yWindow="1300" windowWidth="25600" windowHeight="14700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="loadbalancers" sheetId="50" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="38">
   <si>
     <t>*name</t>
   </si>
@@ -145,6 +145,9 @@
   </si>
   <si>
     <t>/</t>
+  </si>
+  <si>
+    <t>tags</t>
   </si>
 </sst>
 </file>
@@ -397,13 +400,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{2ECE5DB1-D260-6E49-B492-4FB9F047A792}" name="Table3" displayName="Table3" ref="A1:F3" totalsRowShown="0" headerRowDxfId="30">
-  <autoFilter ref="A1:F3" xr:uid="{BF7B2943-D8B2-F141-A648-1F77292E609F}"/>
-  <tableColumns count="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{2ECE5DB1-D260-6E49-B492-4FB9F047A792}" name="Table3" displayName="Table3" ref="A1:G3" totalsRowShown="0" headerRowDxfId="30">
+  <autoFilter ref="A1:G3" xr:uid="{BF7B2943-D8B2-F141-A648-1F77292E609F}"/>
+  <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{7E74D83A-54A4-D149-81D3-7E89BF180D8D}" name="*name" dataDxfId="29"/>
     <tableColumn id="2" xr3:uid="{C8993A1E-13ED-9646-B484-5C8D98EE5999}" name="*subnets" dataDxfId="28"/>
     <tableColumn id="3" xr3:uid="{E05E3D1A-B4E0-144E-B4A0-2A74FB710BE1}" name="type"/>
     <tableColumn id="4" xr3:uid="{F53EAA06-1D92-0941-BD62-CFA25A63B0D9}" name="resource_group"/>
+    <tableColumn id="7" xr3:uid="{2524A41E-F007-AE48-9710-277646E4A10F}" name="tags"/>
     <tableColumn id="5" xr3:uid="{A420FD52-21F4-4942-82B5-3DC0138BED2A}" name="create_timeout"/>
     <tableColumn id="6" xr3:uid="{5D32FBCD-73F2-AF48-BA9D-8F34A6D1A6E7}" name="delete_timeout"/>
   </tableColumns>
@@ -734,7 +738,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3B909B7-5B7F-FE4A-8CD8-0D8F5B038E31}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -743,7 +747,7 @@
     <col min="5" max="6" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -757,13 +761,16 @@
         <v>1</v>
       </c>
       <c r="E1" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -773,17 +780,17 @@
       <c r="C2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
-      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
